--- a/Gemini/metrics-scenario-1/metrics_1_report2.xlsx
+++ b/Gemini/metrics-scenario-1/metrics_1_report2.xlsx
@@ -480,25 +480,25 @@
         <v>70</v>
       </c>
       <c r="B2" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="n">
         <v>9</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5253164556962026</v>
+        <v>0.5316455696202531</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5147058823529411</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="G2" t="n">
         <v>0.8860759493670886</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6511627906976745</v>
+        <v>0.6542056074766355</v>
       </c>
     </row>
   </sheetData>
